--- a/샘플/샘플-학사정보데이터(2021-06-24) (1).xlsx
+++ b/샘플/샘플-학사정보데이터(2021-06-24) (1).xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\학사 성적데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50515\Documents\study\workspace\DBMS\샘플\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보샘플" sheetId="2" r:id="rId1"/>
-    <sheet name="학생정보샘플2" sheetId="4" r:id="rId2"/>
-    <sheet name="성적데이터" sheetId="1" r:id="rId3"/>
-    <sheet name="성적데이터정규화" sheetId="5" r:id="rId4"/>
-    <sheet name="과목코드" sheetId="3" r:id="rId5"/>
+    <sheet name="성적데이터" sheetId="1" r:id="rId2"/>
+    <sheet name="성적데이터정규화" sheetId="5" r:id="rId3"/>
+    <sheet name="과목코드" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="497">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1532,311 +1531,6 @@
   </si>
   <si>
     <t>S019</t>
-  </si>
-  <si>
-    <t>20210001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20210002</t>
-  </si>
-  <si>
-    <t>20210003</t>
-  </si>
-  <si>
-    <t>20210004</t>
-  </si>
-  <si>
-    <t>20210005</t>
-  </si>
-  <si>
-    <t>20210006</t>
-  </si>
-  <si>
-    <t>20210007</t>
-  </si>
-  <si>
-    <t>20210008</t>
-  </si>
-  <si>
-    <t>20210009</t>
-  </si>
-  <si>
-    <t>20210010</t>
-  </si>
-  <si>
-    <t>20210011</t>
-  </si>
-  <si>
-    <t>20210012</t>
-  </si>
-  <si>
-    <t>20210013</t>
-  </si>
-  <si>
-    <t>20210014</t>
-  </si>
-  <si>
-    <t>20210015</t>
-  </si>
-  <si>
-    <t>20210016</t>
-  </si>
-  <si>
-    <t>20210017</t>
-  </si>
-  <si>
-    <t>20210018</t>
-  </si>
-  <si>
-    <t>20210019</t>
-  </si>
-  <si>
-    <t>20210020</t>
-  </si>
-  <si>
-    <t>20210021</t>
-  </si>
-  <si>
-    <t>20210022</t>
-  </si>
-  <si>
-    <t>20210023</t>
-  </si>
-  <si>
-    <t>20210024</t>
-  </si>
-  <si>
-    <t>20210025</t>
-  </si>
-  <si>
-    <t>20210026</t>
-  </si>
-  <si>
-    <t>20210027</t>
-  </si>
-  <si>
-    <t>20210028</t>
-  </si>
-  <si>
-    <t>20210029</t>
-  </si>
-  <si>
-    <t>20210030</t>
-  </si>
-  <si>
-    <t>20210031</t>
-  </si>
-  <si>
-    <t>20210032</t>
-  </si>
-  <si>
-    <t>20210033</t>
-  </si>
-  <si>
-    <t>20210034</t>
-  </si>
-  <si>
-    <t>20210035</t>
-  </si>
-  <si>
-    <t>20210036</t>
-  </si>
-  <si>
-    <t>20210037</t>
-  </si>
-  <si>
-    <t>20210038</t>
-  </si>
-  <si>
-    <t>20210039</t>
-  </si>
-  <si>
-    <t>20210040</t>
-  </si>
-  <si>
-    <t>20210041</t>
-  </si>
-  <si>
-    <t>20210042</t>
-  </si>
-  <si>
-    <t>20210043</t>
-  </si>
-  <si>
-    <t>20210044</t>
-  </si>
-  <si>
-    <t>20210045</t>
-  </si>
-  <si>
-    <t>20210046</t>
-  </si>
-  <si>
-    <t>20210047</t>
-  </si>
-  <si>
-    <t>20210048</t>
-  </si>
-  <si>
-    <t>20210049</t>
-  </si>
-  <si>
-    <t>20210050</t>
-  </si>
-  <si>
-    <t>20210051</t>
-  </si>
-  <si>
-    <t>20210052</t>
-  </si>
-  <si>
-    <t>20210053</t>
-  </si>
-  <si>
-    <t>20210054</t>
-  </si>
-  <si>
-    <t>20210055</t>
-  </si>
-  <si>
-    <t>20210056</t>
-  </si>
-  <si>
-    <t>20210057</t>
-  </si>
-  <si>
-    <t>20210058</t>
-  </si>
-  <si>
-    <t>20210059</t>
-  </si>
-  <si>
-    <t>20210060</t>
-  </si>
-  <si>
-    <t>20210061</t>
-  </si>
-  <si>
-    <t>20210062</t>
-  </si>
-  <si>
-    <t>20210063</t>
-  </si>
-  <si>
-    <t>20210064</t>
-  </si>
-  <si>
-    <t>20210065</t>
-  </si>
-  <si>
-    <t>20210066</t>
-  </si>
-  <si>
-    <t>20210067</t>
-  </si>
-  <si>
-    <t>20210068</t>
-  </si>
-  <si>
-    <t>20210069</t>
-  </si>
-  <si>
-    <t>20210070</t>
-  </si>
-  <si>
-    <t>20210071</t>
-  </si>
-  <si>
-    <t>20210072</t>
-  </si>
-  <si>
-    <t>20210073</t>
-  </si>
-  <si>
-    <t>20210074</t>
-  </si>
-  <si>
-    <t>20210075</t>
-  </si>
-  <si>
-    <t>20210076</t>
-  </si>
-  <si>
-    <t>20210077</t>
-  </si>
-  <si>
-    <t>20210078</t>
-  </si>
-  <si>
-    <t>20210079</t>
-  </si>
-  <si>
-    <t>20210080</t>
-  </si>
-  <si>
-    <t>20210081</t>
-  </si>
-  <si>
-    <t>20210082</t>
-  </si>
-  <si>
-    <t>20210083</t>
-  </si>
-  <si>
-    <t>20210084</t>
-  </si>
-  <si>
-    <t>20210085</t>
-  </si>
-  <si>
-    <t>20210086</t>
-  </si>
-  <si>
-    <t>20210087</t>
-  </si>
-  <si>
-    <t>20210088</t>
-  </si>
-  <si>
-    <t>20210089</t>
-  </si>
-  <si>
-    <t>20210090</t>
-  </si>
-  <si>
-    <t>20210091</t>
-  </si>
-  <si>
-    <t>20210092</t>
-  </si>
-  <si>
-    <t>20210093</t>
-  </si>
-  <si>
-    <t>20210094</t>
-  </si>
-  <si>
-    <t>20210095</t>
-  </si>
-  <si>
-    <t>20210096</t>
-  </si>
-  <si>
-    <t>20210097</t>
-  </si>
-  <si>
-    <t>20210098</t>
-  </si>
-  <si>
-    <t>20210099</t>
-  </si>
-  <si>
-    <t>20210100</t>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학번</t>
@@ -1858,7 +1552,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1914,7 +1608,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1925,7 +1619,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,7 +1940,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4285,2053 +3978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="2">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="2">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="2">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="2">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="2">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="2">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" s="2">
-        <v>3</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D52" s="2">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D62" s="2">
-        <v>4</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D63" s="2">
-        <v>4</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="2">
-        <v>4</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="2">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="2">
-        <v>4</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D73" s="2">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="2">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D75" s="2">
-        <v>4</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D77" s="2">
-        <v>3</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D78" s="2">
-        <v>4</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="2">
-        <v>4</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="2">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D84" s="2">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="2">
-        <v>2</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="2">
-        <v>2</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" s="2">
-        <v>4</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="2">
-        <v>4</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D93" s="2">
-        <v>4</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D96" s="2">
-        <v>3</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="2">
-        <v>4</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" s="2">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="2">
-        <v>3</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D101" s="2">
-        <v>4</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12911,7 +10561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -12923,13 +10573,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>594</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s">
         <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -12938,11 +10588,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -13114,10 +10764,10 @@
     </row>
     <row r="21" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>597</v>
+        <v>495</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
